--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Agrn-Dag1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Agrn-Dag1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>33.79250833333334</v>
+        <v>38.33049633333334</v>
       </c>
       <c r="H2">
-        <v>101.377525</v>
+        <v>114.991489</v>
       </c>
       <c r="I2">
-        <v>0.5882642513409871</v>
+        <v>0.5317874798120843</v>
       </c>
       <c r="J2">
-        <v>0.5882642513409873</v>
+        <v>0.5317874798120843</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>20.84555366666666</v>
+        <v>20.950428</v>
       </c>
       <c r="N2">
-        <v>62.536661</v>
+        <v>62.851284</v>
       </c>
       <c r="O2">
-        <v>0.1528355607951358</v>
+        <v>0.1336707833832197</v>
       </c>
       <c r="P2">
-        <v>0.1528355607951358</v>
+        <v>0.1336707833832197</v>
       </c>
       <c r="Q2">
-        <v>704.4235459937805</v>
+        <v>803.040303635764</v>
       </c>
       <c r="R2">
-        <v>6339.811913944025</v>
+        <v>7227.362732721876</v>
       </c>
       <c r="S2">
-        <v>0.0899076967494305</v>
+        <v>0.07108444901986943</v>
       </c>
       <c r="T2">
-        <v>0.08990769674943053</v>
+        <v>0.07108444901986943</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>33.79250833333334</v>
+        <v>38.33049633333334</v>
       </c>
       <c r="H3">
-        <v>101.377525</v>
+        <v>114.991489</v>
       </c>
       <c r="I3">
-        <v>0.5882642513409871</v>
+        <v>0.5317874798120843</v>
       </c>
       <c r="J3">
-        <v>0.5882642513409873</v>
+        <v>0.5317874798120843</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>87.17184899999999</v>
       </c>
       <c r="O3">
-        <v>0.2130423692986087</v>
+        <v>0.1853952473714576</v>
       </c>
       <c r="P3">
-        <v>0.2130423692986087</v>
+        <v>0.1853952473714576</v>
       </c>
       <c r="Q3">
-        <v>981.9184779215251</v>
+        <v>1113.780079488129</v>
       </c>
       <c r="R3">
-        <v>8837.266301293725</v>
+        <v>10024.02071539316</v>
       </c>
       <c r="S3">
-        <v>0.1253252098793562</v>
+        <v>0.0985908713688054</v>
       </c>
       <c r="T3">
-        <v>0.1253252098793562</v>
+        <v>0.0985908713688054</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>33.79250833333334</v>
+        <v>38.33049633333334</v>
       </c>
       <c r="H4">
-        <v>101.377525</v>
+        <v>114.991489</v>
       </c>
       <c r="I4">
-        <v>0.5882642513409871</v>
+        <v>0.5317874798120843</v>
       </c>
       <c r="J4">
-        <v>0.5882642513409873</v>
+        <v>0.5317874798120843</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.459812</v>
+        <v>4.814181666666666</v>
       </c>
       <c r="N4">
-        <v>22.379436</v>
+        <v>14.442545</v>
       </c>
       <c r="O4">
-        <v>0.05469389629450878</v>
+        <v>0.03071609967741316</v>
       </c>
       <c r="P4">
-        <v>0.05469389629450878</v>
+        <v>0.03071609967741316</v>
       </c>
       <c r="Q4">
-        <v>252.0857591751</v>
+        <v>184.5299727221672</v>
       </c>
       <c r="R4">
-        <v>2268.7718325759</v>
+        <v>1660.769754499505</v>
       </c>
       <c r="S4">
-        <v>0.0321744639566108</v>
+        <v>0.01633443723710832</v>
       </c>
       <c r="T4">
-        <v>0.0321744639566108</v>
+        <v>0.01633443723710832</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>33.79250833333334</v>
+        <v>38.33049633333334</v>
       </c>
       <c r="H5">
-        <v>101.377525</v>
+        <v>114.991489</v>
       </c>
       <c r="I5">
-        <v>0.5882642513409871</v>
+        <v>0.5317874798120843</v>
       </c>
       <c r="J5">
-        <v>0.5882642513409873</v>
+        <v>0.5317874798120843</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>71.92949600000001</v>
+        <v>95.02938066666667</v>
       </c>
       <c r="N5">
-        <v>215.788488</v>
+        <v>285.088142</v>
       </c>
       <c r="O5">
-        <v>0.527373128805429</v>
+        <v>0.6063194393038427</v>
       </c>
       <c r="P5">
-        <v>0.527373128805429</v>
+        <v>0.6063194393038427</v>
       </c>
       <c r="Q5">
-        <v>2430.678092992468</v>
+        <v>3642.523327202604</v>
       </c>
       <c r="R5">
-        <v>21876.1028369322</v>
+        <v>32782.70994482344</v>
       </c>
       <c r="S5">
-        <v>0.3102347587940796</v>
+        <v>0.3224330865884665</v>
       </c>
       <c r="T5">
-        <v>0.3102347587940797</v>
+        <v>0.3224330865884665</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>33.79250833333334</v>
+        <v>38.33049633333334</v>
       </c>
       <c r="H6">
-        <v>101.377525</v>
+        <v>114.991489</v>
       </c>
       <c r="I6">
-        <v>0.5882642513409871</v>
+        <v>0.5317874798120843</v>
       </c>
       <c r="J6">
-        <v>0.5882642513409873</v>
+        <v>0.5317874798120843</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.099893666666667</v>
+        <v>6.880268666666666</v>
       </c>
       <c r="N6">
-        <v>21.299681</v>
+        <v>20.640806</v>
       </c>
       <c r="O6">
-        <v>0.05205504480631769</v>
+        <v>0.04389843026406686</v>
       </c>
       <c r="P6">
-        <v>0.05205504480631769</v>
+        <v>0.04389843026406686</v>
       </c>
       <c r="Q6">
-        <v>239.9232158966139</v>
+        <v>263.7241129000149</v>
       </c>
       <c r="R6">
-        <v>2159.308943069525</v>
+        <v>2373.517016100134</v>
       </c>
       <c r="S6">
-        <v>0.03062212196151002</v>
+        <v>0.02334463559783465</v>
       </c>
       <c r="T6">
-        <v>0.03062212196151002</v>
+        <v>0.02334463559783465</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>44.830572</v>
       </c>
       <c r="I7">
-        <v>0.260138752398702</v>
+        <v>0.2073226210890634</v>
       </c>
       <c r="J7">
-        <v>0.260138752398702</v>
+        <v>0.2073226210890634</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>20.84555366666666</v>
+        <v>20.950428</v>
       </c>
       <c r="N7">
-        <v>62.536661</v>
+        <v>62.851284</v>
       </c>
       <c r="O7">
-        <v>0.1528355607951358</v>
+        <v>0.1336707833832197</v>
       </c>
       <c r="P7">
-        <v>0.1528355607951358</v>
+        <v>0.1336707833832197</v>
       </c>
       <c r="Q7">
-        <v>311.5060315111213</v>
+        <v>313.073223628272</v>
       </c>
       <c r="R7">
-        <v>2803.554283600092</v>
+        <v>2817.659012654448</v>
       </c>
       <c r="S7">
-        <v>0.03975845210740261</v>
+        <v>0.02771297717403752</v>
       </c>
       <c r="T7">
-        <v>0.03975845210740261</v>
+        <v>0.02771297717403752</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>44.830572</v>
       </c>
       <c r="I8">
-        <v>0.260138752398702</v>
+        <v>0.2073226210890634</v>
       </c>
       <c r="J8">
-        <v>0.260138752398702</v>
+        <v>0.2073226210890634</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>87.17184899999999</v>
       </c>
       <c r="O8">
-        <v>0.2130423692986087</v>
+        <v>0.1853952473714576</v>
       </c>
       <c r="P8">
-        <v>0.2130423692986087</v>
+        <v>0.1853952473714576</v>
       </c>
       <c r="Q8">
         <v>434.218205885292</v>
@@ -948,10 +948,10 @@
         <v>3907.963852967628</v>
       </c>
       <c r="S8">
-        <v>0.0554205761574036</v>
+        <v>0.03843662862250588</v>
       </c>
       <c r="T8">
-        <v>0.05542057615740361</v>
+        <v>0.03843662862250588</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>44.830572</v>
       </c>
       <c r="I9">
-        <v>0.260138752398702</v>
+        <v>0.2073226210890634</v>
       </c>
       <c r="J9">
-        <v>0.260138752398702</v>
+        <v>0.2073226210890634</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.459812</v>
+        <v>4.814181666666666</v>
       </c>
       <c r="N9">
-        <v>22.379436</v>
+        <v>14.442545</v>
       </c>
       <c r="O9">
-        <v>0.05469389629450878</v>
+        <v>0.03071609967741316</v>
       </c>
       <c r="P9">
-        <v>0.05469389629450878</v>
+        <v>0.03071609967741316</v>
       </c>
       <c r="Q9">
-        <v>111.475879657488</v>
+        <v>71.94083927619334</v>
       </c>
       <c r="R9">
-        <v>1003.282916917392</v>
+        <v>647.46755348574</v>
       </c>
       <c r="S9">
-        <v>0.01422800194587751</v>
+        <v>0.006368142294754229</v>
       </c>
       <c r="T9">
-        <v>0.01422800194587751</v>
+        <v>0.006368142294754229</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>44.830572</v>
       </c>
       <c r="I10">
-        <v>0.260138752398702</v>
+        <v>0.2073226210890634</v>
       </c>
       <c r="J10">
-        <v>0.260138752398702</v>
+        <v>0.2073226210890634</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>71.92949600000001</v>
+        <v>95.02938066666667</v>
       </c>
       <c r="N10">
-        <v>215.788488</v>
+        <v>285.088142</v>
       </c>
       <c r="O10">
-        <v>0.527373128805429</v>
+        <v>0.6063194393038427</v>
       </c>
       <c r="P10">
-        <v>0.527373128805429</v>
+        <v>0.6063194393038427</v>
       </c>
       <c r="Q10">
-        <v>1074.880149783904</v>
+        <v>1420.073830697469</v>
       </c>
       <c r="R10">
-        <v>9673.921348055139</v>
+        <v>12780.66447627722</v>
       </c>
       <c r="S10">
-        <v>0.1371901877760442</v>
+        <v>0.1257037353737239</v>
       </c>
       <c r="T10">
-        <v>0.1371901877760443</v>
+        <v>0.1257037353737239</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>44.830572</v>
       </c>
       <c r="I11">
-        <v>0.260138752398702</v>
+        <v>0.2073226210890634</v>
       </c>
       <c r="J11">
-        <v>0.260138752398702</v>
+        <v>0.2073226210890634</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>7.099893666666667</v>
+        <v>6.880268666666666</v>
       </c>
       <c r="N11">
-        <v>21.299681</v>
+        <v>20.640806</v>
       </c>
       <c r="O11">
-        <v>0.05205504480631769</v>
+        <v>0.04389843026406686</v>
       </c>
       <c r="P11">
-        <v>0.05205504480631769</v>
+        <v>0.04389843026406686</v>
       </c>
       <c r="Q11">
-        <v>106.0974314052813</v>
+        <v>102.8154599467813</v>
       </c>
       <c r="R11">
-        <v>954.8768826475321</v>
+        <v>925.3391395210319</v>
       </c>
       <c r="S11">
-        <v>0.01354153441197401</v>
+        <v>0.009101137624041805</v>
       </c>
       <c r="T11">
-        <v>0.01354153441197402</v>
+        <v>0.009101137624041805</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.473182333333333</v>
+        <v>8.167063666666666</v>
       </c>
       <c r="H12">
-        <v>4.419547</v>
+        <v>24.501191</v>
       </c>
       <c r="I12">
-        <v>0.02564534404663464</v>
+        <v>0.1133077476219524</v>
       </c>
       <c r="J12">
-        <v>0.02564534404663465</v>
+        <v>0.1133077476219524</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>20.84555366666666</v>
+        <v>20.950428</v>
       </c>
       <c r="N12">
-        <v>62.536661</v>
+        <v>62.851284</v>
       </c>
       <c r="O12">
-        <v>0.1528355607951358</v>
+        <v>0.1336707833832197</v>
       </c>
       <c r="P12">
-        <v>0.1528355607951358</v>
+        <v>0.1336707833832197</v>
       </c>
       <c r="Q12">
-        <v>30.70930139028522</v>
+        <v>171.103479319916</v>
       </c>
       <c r="R12">
-        <v>276.3837125125669</v>
+        <v>1539.931313879244</v>
       </c>
       <c r="S12">
-        <v>0.003919520539151604</v>
+        <v>0.01514593538801453</v>
       </c>
       <c r="T12">
-        <v>0.003919520539151605</v>
+        <v>0.01514593538801453</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.473182333333333</v>
+        <v>8.167063666666666</v>
       </c>
       <c r="H13">
-        <v>4.419547</v>
+        <v>24.501191</v>
       </c>
       <c r="I13">
-        <v>0.02564534404663464</v>
+        <v>0.1133077476219524</v>
       </c>
       <c r="J13">
-        <v>0.02564534404663465</v>
+        <v>0.1133077476219524</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>87.17184899999999</v>
       </c>
       <c r="O13">
-        <v>0.2130423692986087</v>
+        <v>0.1853952473714576</v>
       </c>
       <c r="P13">
-        <v>0.2130423692986087</v>
+        <v>0.1853952473714576</v>
       </c>
       <c r="Q13">
-        <v>42.80667597026699</v>
+        <v>237.312680241351</v>
       </c>
       <c r="R13">
-        <v>385.260083732403</v>
+        <v>2135.814122172159</v>
       </c>
       <c r="S13">
-        <v>0.005463544857173014</v>
+        <v>0.02100671789947456</v>
       </c>
       <c r="T13">
-        <v>0.005463544857173016</v>
+        <v>0.02100671789947457</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.473182333333333</v>
+        <v>8.167063666666666</v>
       </c>
       <c r="H14">
-        <v>4.419547</v>
+        <v>24.501191</v>
       </c>
       <c r="I14">
-        <v>0.02564534404663464</v>
+        <v>0.1133077476219524</v>
       </c>
       <c r="J14">
-        <v>0.02564534404663465</v>
+        <v>0.1133077476219524</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>7.459812</v>
+        <v>4.814181666666666</v>
       </c>
       <c r="N14">
-        <v>22.379436</v>
+        <v>14.442545</v>
       </c>
       <c r="O14">
-        <v>0.05469389629450878</v>
+        <v>0.03071609967741316</v>
       </c>
       <c r="P14">
-        <v>0.05469389629450878</v>
+        <v>0.03071609967741316</v>
       </c>
       <c r="Q14">
-        <v>10.989663248388</v>
+        <v>39.31772817456611</v>
       </c>
       <c r="R14">
-        <v>98.906969235492</v>
+        <v>353.859553571095</v>
       </c>
       <c r="S14">
-        <v>0.001402643787723634</v>
+        <v>0.003480372070179065</v>
       </c>
       <c r="T14">
-        <v>0.001402643787723634</v>
+        <v>0.003480372070179065</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.473182333333333</v>
+        <v>8.167063666666666</v>
       </c>
       <c r="H15">
-        <v>4.419547</v>
+        <v>24.501191</v>
       </c>
       <c r="I15">
-        <v>0.02564534404663464</v>
+        <v>0.1133077476219524</v>
       </c>
       <c r="J15">
-        <v>0.02564534404663465</v>
+        <v>0.1133077476219524</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>71.92949600000001</v>
+        <v>95.02938066666667</v>
       </c>
       <c r="N15">
-        <v>215.788488</v>
+        <v>285.088142</v>
       </c>
       <c r="O15">
-        <v>0.527373128805429</v>
+        <v>0.6063194393038427</v>
       </c>
       <c r="P15">
-        <v>0.527373128805429</v>
+        <v>0.6063194393038427</v>
       </c>
       <c r="Q15">
-        <v>105.9652627527707</v>
+        <v>776.111002108569</v>
       </c>
       <c r="R15">
-        <v>953.6873647749361</v>
+        <v>6984.999018977122</v>
       </c>
       <c r="S15">
-        <v>0.01352466532916539</v>
+        <v>0.06870069000692351</v>
       </c>
       <c r="T15">
-        <v>0.0135246653291654</v>
+        <v>0.06870069000692353</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.473182333333333</v>
+        <v>8.167063666666666</v>
       </c>
       <c r="H16">
-        <v>4.419547</v>
+        <v>24.501191</v>
       </c>
       <c r="I16">
-        <v>0.02564534404663464</v>
+        <v>0.1133077476219524</v>
       </c>
       <c r="J16">
-        <v>0.02564534404663465</v>
+        <v>0.1133077476219524</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>7.099893666666667</v>
+        <v>6.880268666666666</v>
       </c>
       <c r="N16">
-        <v>21.299681</v>
+        <v>20.640806</v>
       </c>
       <c r="O16">
-        <v>0.05205504480631769</v>
+        <v>0.04389843026406686</v>
       </c>
       <c r="P16">
-        <v>0.05205504480631769</v>
+        <v>0.04389843026406686</v>
       </c>
       <c r="Q16">
-        <v>10.45943791827855</v>
+        <v>56.19159224443843</v>
       </c>
       <c r="R16">
-        <v>94.13494126450699</v>
+        <v>505.7243301999459</v>
       </c>
       <c r="S16">
-        <v>0.001334969533420999</v>
+        <v>0.004974032257360767</v>
       </c>
       <c r="T16">
-        <v>0.001334969533420999</v>
+        <v>0.004974032257360767</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.555109333333333</v>
+        <v>5.834252333333334</v>
       </c>
       <c r="H17">
-        <v>13.665328</v>
+        <v>17.502757</v>
       </c>
       <c r="I17">
-        <v>0.07929591835319542</v>
+        <v>0.08094292121735479</v>
       </c>
       <c r="J17">
-        <v>0.07929591835319544</v>
+        <v>0.08094292121735479</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>20.84555366666666</v>
+        <v>20.950428</v>
       </c>
       <c r="N17">
-        <v>62.536661</v>
+        <v>62.851284</v>
       </c>
       <c r="O17">
-        <v>0.1528355607951358</v>
+        <v>0.1336707833832197</v>
       </c>
       <c r="P17">
-        <v>0.1528355607951358</v>
+        <v>0.1336707833832197</v>
       </c>
       <c r="Q17">
-        <v>94.95377606553421</v>
+        <v>122.230083443332</v>
       </c>
       <c r="R17">
-        <v>854.583984589808</v>
+        <v>1100.070750989988</v>
       </c>
       <c r="S17">
-        <v>0.01211923615027593</v>
+        <v>0.01081970368845005</v>
       </c>
       <c r="T17">
-        <v>0.01211923615027593</v>
+        <v>0.01081970368845005</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>4.555109333333333</v>
+        <v>5.834252333333334</v>
       </c>
       <c r="H18">
-        <v>13.665328</v>
+        <v>17.502757</v>
       </c>
       <c r="I18">
-        <v>0.07929591835319542</v>
+        <v>0.08094292121735479</v>
       </c>
       <c r="J18">
-        <v>0.07929591835319544</v>
+        <v>0.08094292121735479</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>87.17184899999999</v>
       </c>
       <c r="O18">
-        <v>0.2130423692986087</v>
+        <v>0.1853952473714576</v>
       </c>
       <c r="P18">
-        <v>0.2130423692986087</v>
+        <v>0.1853952473714576</v>
       </c>
       <c r="Q18">
-        <v>132.359100994608</v>
+        <v>169.527521143077</v>
       </c>
       <c r="R18">
-        <v>1191.231908951472</v>
+        <v>1525.747690287693</v>
       </c>
       <c r="S18">
-        <v>0.01689339032167378</v>
+        <v>0.0150064329020599</v>
       </c>
       <c r="T18">
-        <v>0.01689339032167379</v>
+        <v>0.0150064329020599</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>4.555109333333333</v>
+        <v>5.834252333333334</v>
       </c>
       <c r="H19">
-        <v>13.665328</v>
+        <v>17.502757</v>
       </c>
       <c r="I19">
-        <v>0.07929591835319542</v>
+        <v>0.08094292121735479</v>
       </c>
       <c r="J19">
-        <v>0.07929591835319544</v>
+        <v>0.08094292121735479</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>7.459812</v>
+        <v>4.814181666666666</v>
       </c>
       <c r="N19">
-        <v>22.379436</v>
+        <v>14.442545</v>
       </c>
       <c r="O19">
-        <v>0.05469389629450878</v>
+        <v>0.03071609967741316</v>
       </c>
       <c r="P19">
-        <v>0.05469389629450878</v>
+        <v>0.03071609967741316</v>
       </c>
       <c r="Q19">
-        <v>33.980259266112</v>
+        <v>28.08715062184056</v>
       </c>
       <c r="R19">
-        <v>305.8223333950081</v>
+        <v>252.784355596565</v>
       </c>
       <c r="S19">
-        <v>0.004337002734987506</v>
+        <v>0.00248625083629327</v>
       </c>
       <c r="T19">
-        <v>0.004337002734987507</v>
+        <v>0.00248625083629327</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>4.555109333333333</v>
+        <v>5.834252333333334</v>
       </c>
       <c r="H20">
-        <v>13.665328</v>
+        <v>17.502757</v>
       </c>
       <c r="I20">
-        <v>0.07929591835319542</v>
+        <v>0.08094292121735479</v>
       </c>
       <c r="J20">
-        <v>0.07929591835319544</v>
+        <v>0.08094292121735479</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>71.92949600000001</v>
+        <v>95.02938066666667</v>
       </c>
       <c r="N20">
-        <v>215.788488</v>
+        <v>285.088142</v>
       </c>
       <c r="O20">
-        <v>0.527373128805429</v>
+        <v>0.6063194393038427</v>
       </c>
       <c r="P20">
-        <v>0.527373128805429</v>
+        <v>0.6063194393038427</v>
       </c>
       <c r="Q20">
-        <v>327.6467185715627</v>
+        <v>554.4253858897217</v>
       </c>
       <c r="R20">
-        <v>2948.820467144064</v>
+        <v>4989.828473007495</v>
       </c>
       <c r="S20">
-        <v>0.04181853656342451</v>
+        <v>0.04907726660812167</v>
       </c>
       <c r="T20">
-        <v>0.04181853656342452</v>
+        <v>0.04907726660812167</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>4.555109333333333</v>
+        <v>5.834252333333334</v>
       </c>
       <c r="H21">
-        <v>13.665328</v>
+        <v>17.502757</v>
       </c>
       <c r="I21">
-        <v>0.07929591835319542</v>
+        <v>0.08094292121735479</v>
       </c>
       <c r="J21">
-        <v>0.07929591835319544</v>
+        <v>0.08094292121735479</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>7.099893666666667</v>
+        <v>6.880268666666666</v>
       </c>
       <c r="N21">
-        <v>21.299681</v>
+        <v>20.640806</v>
       </c>
       <c r="O21">
-        <v>0.05205504480631769</v>
+        <v>0.04389843026406686</v>
       </c>
       <c r="P21">
-        <v>0.05205504480631769</v>
+        <v>0.04389843026406686</v>
       </c>
       <c r="Q21">
-        <v>32.34079190670755</v>
+        <v>40.14122352246022</v>
       </c>
       <c r="R21">
-        <v>291.067127160368</v>
+        <v>361.271011702142</v>
       </c>
       <c r="S21">
-        <v>0.004127752582833697</v>
+        <v>0.003553267182429907</v>
       </c>
       <c r="T21">
-        <v>0.004127752582833697</v>
+        <v>0.003553267182429907</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2.680112333333333</v>
+        <v>4.803262333333334</v>
       </c>
       <c r="H22">
-        <v>8.040336999999999</v>
+        <v>14.409787</v>
       </c>
       <c r="I22">
-        <v>0.04665573386048079</v>
+        <v>0.06663923025954499</v>
       </c>
       <c r="J22">
-        <v>0.0466557338604808</v>
+        <v>0.066639230259545</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>20.84555366666666</v>
+        <v>20.950428</v>
       </c>
       <c r="N22">
-        <v>62.536661</v>
+        <v>62.851284</v>
       </c>
       <c r="O22">
-        <v>0.1528355607951358</v>
+        <v>0.1336707833832197</v>
       </c>
       <c r="P22">
-        <v>0.1528355607951358</v>
+        <v>0.1336707833832197</v>
       </c>
       <c r="Q22">
-        <v>55.86842547719521</v>
+        <v>100.630401679612</v>
       </c>
       <c r="R22">
-        <v>502.8158292947569</v>
+        <v>905.6736151165081</v>
       </c>
       <c r="S22">
-        <v>0.007130655248875188</v>
+        <v>0.008907718112848137</v>
       </c>
       <c r="T22">
-        <v>0.00713065524887519</v>
+        <v>0.008907718112848139</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2.680112333333333</v>
+        <v>4.803262333333334</v>
       </c>
       <c r="H23">
-        <v>8.040336999999999</v>
+        <v>14.409787</v>
       </c>
       <c r="I23">
-        <v>0.04665573386048079</v>
+        <v>0.06663923025954499</v>
       </c>
       <c r="J23">
-        <v>0.0466557338604808</v>
+        <v>0.066639230259545</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>87.17184899999999</v>
       </c>
       <c r="O23">
-        <v>0.2130423692986087</v>
+        <v>0.1853952473714576</v>
       </c>
       <c r="P23">
-        <v>0.2130423692986087</v>
+        <v>0.1853952473714576</v>
       </c>
       <c r="Q23">
-        <v>77.87678254145699</v>
+        <v>139.569752942907</v>
       </c>
       <c r="R23">
-        <v>700.8910428731128</v>
+        <v>1256.127776486163</v>
       </c>
       <c r="S23">
-        <v>0.009939648083002151</v>
+        <v>0.01235459657861187</v>
       </c>
       <c r="T23">
-        <v>0.009939648083002153</v>
+        <v>0.01235459657861187</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2.680112333333333</v>
+        <v>4.803262333333334</v>
       </c>
       <c r="H24">
-        <v>8.040336999999999</v>
+        <v>14.409787</v>
       </c>
       <c r="I24">
-        <v>0.04665573386048079</v>
+        <v>0.06663923025954499</v>
       </c>
       <c r="J24">
-        <v>0.0466557338604808</v>
+        <v>0.066639230259545</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>7.459812</v>
+        <v>4.814181666666666</v>
       </c>
       <c r="N24">
-        <v>22.379436</v>
+        <v>14.442545</v>
       </c>
       <c r="O24">
-        <v>0.05469389629450878</v>
+        <v>0.03071609967741316</v>
       </c>
       <c r="P24">
-        <v>0.05469389629450878</v>
+        <v>0.03071609967741316</v>
       </c>
       <c r="Q24">
-        <v>19.993134145548</v>
+        <v>23.12377746532389</v>
       </c>
       <c r="R24">
-        <v>179.938207309932</v>
+        <v>208.113997187915</v>
       </c>
       <c r="S24">
-        <v>0.002551783869309338</v>
+        <v>0.002046897239078271</v>
       </c>
       <c r="T24">
-        <v>0.002551783869309339</v>
+        <v>0.002046897239078271</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2.680112333333333</v>
+        <v>4.803262333333334</v>
       </c>
       <c r="H25">
-        <v>8.040336999999999</v>
+        <v>14.409787</v>
       </c>
       <c r="I25">
-        <v>0.04665573386048079</v>
+        <v>0.06663923025954499</v>
       </c>
       <c r="J25">
-        <v>0.0466557338604808</v>
+        <v>0.066639230259545</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>71.92949600000001</v>
+        <v>95.02938066666667</v>
       </c>
       <c r="N25">
-        <v>215.788488</v>
+        <v>285.088142</v>
       </c>
       <c r="O25">
-        <v>0.527373128805429</v>
+        <v>0.6063194393038427</v>
       </c>
       <c r="P25">
-        <v>0.527373128805429</v>
+        <v>0.6063194393038427</v>
       </c>
       <c r="Q25">
-        <v>192.7791293600507</v>
+        <v>456.4510447161949</v>
       </c>
       <c r="R25">
-        <v>1735.012164240456</v>
+        <v>4108.059402445754</v>
       </c>
       <c r="S25">
-        <v>0.02460498034271515</v>
+        <v>0.04040466072660698</v>
       </c>
       <c r="T25">
-        <v>0.02460498034271515</v>
+        <v>0.04040466072660699</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>2.680112333333333</v>
+        <v>4.803262333333334</v>
       </c>
       <c r="H26">
-        <v>8.040336999999999</v>
+        <v>14.409787</v>
       </c>
       <c r="I26">
-        <v>0.04665573386048079</v>
+        <v>0.06663923025954499</v>
       </c>
       <c r="J26">
-        <v>0.0466557338604808</v>
+        <v>0.066639230259545</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>7.099893666666667</v>
+        <v>6.880268666666666</v>
       </c>
       <c r="N26">
-        <v>21.299681</v>
+        <v>20.640806</v>
       </c>
       <c r="O26">
-        <v>0.05205504480631769</v>
+        <v>0.04389843026406686</v>
       </c>
       <c r="P26">
-        <v>0.05205504480631769</v>
+        <v>0.04389843026406686</v>
       </c>
       <c r="Q26">
-        <v>19.02851258138855</v>
+        <v>33.04773532981356</v>
       </c>
       <c r="R26">
-        <v>171.256613232497</v>
+        <v>297.429617968322</v>
       </c>
       <c r="S26">
-        <v>0.002428666316578961</v>
+        <v>0.00292535760239973</v>
       </c>
       <c r="T26">
-        <v>0.002428666316578961</v>
+        <v>0.002925357602399731</v>
       </c>
     </row>
   </sheetData>
